--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.135051</v>
+        <v>0.2928123333333333</v>
       </c>
       <c r="H2">
-        <v>0.405153</v>
+        <v>0.8784369999999999</v>
       </c>
       <c r="I2">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="J2">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.006869333333333</v>
+        <v>6.391557333333332</v>
       </c>
       <c r="N2">
-        <v>12.020608</v>
+        <v>19.174672</v>
       </c>
       <c r="O2">
-        <v>0.07551821629014406</v>
+        <v>0.1156448793857254</v>
       </c>
       <c r="P2">
-        <v>0.07551821629014405</v>
+        <v>0.1156448793857254</v>
       </c>
       <c r="Q2">
-        <v>0.541131710336</v>
+        <v>1.87152681640711</v>
       </c>
       <c r="R2">
-        <v>4.870185393024</v>
+        <v>16.843741347664</v>
       </c>
       <c r="S2">
-        <v>0.002339246855456275</v>
+        <v>0.007409301587501154</v>
       </c>
       <c r="T2">
-        <v>0.002339246855456275</v>
+        <v>0.007409301587501154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.135051</v>
+        <v>0.2928123333333333</v>
       </c>
       <c r="H3">
-        <v>0.405153</v>
+        <v>0.8784369999999999</v>
       </c>
       <c r="I3">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="J3">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>43.281512</v>
       </c>
       <c r="O3">
-        <v>0.2719115858848792</v>
+        <v>0.2610362896883882</v>
       </c>
       <c r="P3">
-        <v>0.2719115858848791</v>
+        <v>0.2610362896883882</v>
       </c>
       <c r="Q3">
-        <v>1.948403825704</v>
+        <v>4.224453506304888</v>
       </c>
       <c r="R3">
-        <v>17.535634431336</v>
+        <v>38.020081556744</v>
       </c>
       <c r="S3">
-        <v>0.008422713796622686</v>
+        <v>0.01672444647663596</v>
       </c>
       <c r="T3">
-        <v>0.008422713796622685</v>
+        <v>0.01672444647663596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.135051</v>
+        <v>0.2928123333333333</v>
       </c>
       <c r="H4">
-        <v>0.405153</v>
+        <v>0.8784369999999999</v>
       </c>
       <c r="I4">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="J4">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.49407933333333</v>
+        <v>32.348972</v>
       </c>
       <c r="N4">
-        <v>97.482238</v>
+        <v>97.046916</v>
       </c>
       <c r="O4">
-        <v>0.6124219951046819</v>
+        <v>0.5853022620452971</v>
       </c>
       <c r="P4">
-        <v>0.6124219951046818</v>
+        <v>0.5853022620452972</v>
       </c>
       <c r="Q4">
-        <v>4.388357908046</v>
+        <v>9.472177972254665</v>
       </c>
       <c r="R4">
-        <v>39.495221172414</v>
+        <v>85.24960175029199</v>
       </c>
       <c r="S4">
-        <v>0.01897033982842966</v>
+        <v>0.03749998272621775</v>
       </c>
       <c r="T4">
-        <v>0.01897033982842966</v>
+        <v>0.03749998272621775</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.135051</v>
+        <v>0.2928123333333333</v>
       </c>
       <c r="H5">
-        <v>0.405153</v>
+        <v>0.8784369999999999</v>
       </c>
       <c r="I5">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="J5">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.130196</v>
+        <v>2.101131333333333</v>
       </c>
       <c r="N5">
-        <v>6.390587999999999</v>
+        <v>6.303394</v>
       </c>
       <c r="O5">
-        <v>0.04014820272029494</v>
+        <v>0.03801656888058921</v>
       </c>
       <c r="P5">
-        <v>0.04014820272029494</v>
+        <v>0.03801656888058921</v>
       </c>
       <c r="Q5">
-        <v>0.2876850999959999</v>
+        <v>0.615237168353111</v>
       </c>
       <c r="R5">
-        <v>2.589165899964</v>
+        <v>5.537134515178</v>
       </c>
       <c r="S5">
-        <v>0.001243627850065205</v>
+        <v>0.002435699925967196</v>
       </c>
       <c r="T5">
-        <v>0.001243627850065205</v>
+        <v>0.002435699925967196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.833609</v>
       </c>
       <c r="I6">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="J6">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.006869333333333</v>
+        <v>6.391557333333332</v>
       </c>
       <c r="N6">
-        <v>12.020608</v>
+        <v>19.174672</v>
       </c>
       <c r="O6">
-        <v>0.07551821629014406</v>
+        <v>0.1156448793857254</v>
       </c>
       <c r="P6">
-        <v>0.07551821629014405</v>
+        <v>0.1156448793857254</v>
       </c>
       <c r="Q6">
-        <v>15.80524166825244</v>
+        <v>25.21173012791644</v>
       </c>
       <c r="R6">
-        <v>142.247175014272</v>
+        <v>226.905571151248</v>
       </c>
       <c r="S6">
-        <v>0.06832414579664738</v>
+        <v>0.09981225511854346</v>
       </c>
       <c r="T6">
-        <v>0.06832414579664736</v>
+        <v>0.09981225511854346</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.833609</v>
       </c>
       <c r="I7">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="J7">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>43.281512</v>
       </c>
       <c r="O7">
-        <v>0.2719115858848792</v>
+        <v>0.2610362896883882</v>
       </c>
       <c r="P7">
-        <v>0.2719115858848791</v>
+        <v>0.2610362896883882</v>
       </c>
       <c r="Q7">
         <v>56.90849888186756</v>
@@ -883,10 +883,10 @@
         <v>512.1764899368079</v>
       </c>
       <c r="S7">
-        <v>0.2460085493335564</v>
+        <v>0.2252985249322805</v>
       </c>
       <c r="T7">
-        <v>0.2460085493335564</v>
+        <v>0.2252985249322805</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.833609</v>
       </c>
       <c r="I8">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="J8">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.49407933333333</v>
+        <v>32.348972</v>
       </c>
       <c r="N8">
-        <v>97.482238</v>
+        <v>97.046916</v>
       </c>
       <c r="O8">
-        <v>0.6124219951046819</v>
+        <v>0.5853022620452971</v>
       </c>
       <c r="P8">
-        <v>0.6124219951046818</v>
+        <v>0.5853022620452972</v>
       </c>
       <c r="Q8">
-        <v>128.1740765485491</v>
+        <v>127.6016953999826</v>
       </c>
       <c r="R8">
-        <v>1153.566688936942</v>
+        <v>1148.415258599844</v>
       </c>
       <c r="S8">
-        <v>0.5540810116838913</v>
+        <v>0.5051701295469282</v>
       </c>
       <c r="T8">
-        <v>0.5540810116838912</v>
+        <v>0.5051701295469282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.833609</v>
       </c>
       <c r="I9">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="J9">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.130196</v>
+        <v>2.101131333333333</v>
       </c>
       <c r="N9">
-        <v>6.390587999999999</v>
+        <v>6.303394</v>
       </c>
       <c r="O9">
-        <v>0.04014820272029494</v>
+        <v>0.03801656888058921</v>
       </c>
       <c r="P9">
-        <v>0.04014820272029494</v>
+        <v>0.03801656888058921</v>
       </c>
       <c r="Q9">
-        <v>8.402635519121333</v>
+        <v>8.287988885438445</v>
       </c>
       <c r="R9">
-        <v>75.62371967209198</v>
+        <v>74.591899968946</v>
       </c>
       <c r="S9">
-        <v>0.0363235758322961</v>
+        <v>0.03281182437126937</v>
       </c>
       <c r="T9">
-        <v>0.03632357583229609</v>
+        <v>0.03281182437126937</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.280282</v>
+        <v>0.332886</v>
       </c>
       <c r="H10">
-        <v>0.840846</v>
+        <v>0.998658</v>
       </c>
       <c r="I10">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="J10">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.006869333333333</v>
+        <v>6.391557333333332</v>
       </c>
       <c r="N10">
-        <v>12.020608</v>
+        <v>19.174672</v>
       </c>
       <c r="O10">
-        <v>0.07551821629014406</v>
+        <v>0.1156448793857254</v>
       </c>
       <c r="P10">
-        <v>0.07551821629014405</v>
+        <v>0.1156448793857254</v>
       </c>
       <c r="Q10">
-        <v>1.123053350485333</v>
+        <v>2.127659954464</v>
       </c>
       <c r="R10">
-        <v>10.107480154368</v>
+        <v>19.148939590176</v>
       </c>
       <c r="S10">
-        <v>0.004854823638040411</v>
+        <v>0.008423322679680762</v>
       </c>
       <c r="T10">
-        <v>0.00485482363804041</v>
+        <v>0.008423322679680762</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.280282</v>
+        <v>0.332886</v>
       </c>
       <c r="H11">
-        <v>0.840846</v>
+        <v>0.998658</v>
       </c>
       <c r="I11">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="J11">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>43.281512</v>
       </c>
       <c r="O11">
-        <v>0.2719115858848792</v>
+        <v>0.2610362896883882</v>
       </c>
       <c r="P11">
-        <v>0.2719115858848791</v>
+        <v>0.2610362896883882</v>
       </c>
       <c r="Q11">
-        <v>4.043676248794666</v>
+        <v>4.802603134544</v>
       </c>
       <c r="R11">
-        <v>36.393086239152</v>
+        <v>43.223428210896</v>
       </c>
       <c r="S11">
-        <v>0.01748032275470007</v>
+        <v>0.01901331827947175</v>
       </c>
       <c r="T11">
-        <v>0.01748032275470007</v>
+        <v>0.01901331827947175</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.280282</v>
+        <v>0.332886</v>
       </c>
       <c r="H12">
-        <v>0.840846</v>
+        <v>0.998658</v>
       </c>
       <c r="I12">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="J12">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.49407933333333</v>
+        <v>32.348972</v>
       </c>
       <c r="N12">
-        <v>97.482238</v>
+        <v>97.046916</v>
       </c>
       <c r="O12">
-        <v>0.6124219951046819</v>
+        <v>0.5853022620452971</v>
       </c>
       <c r="P12">
-        <v>0.6124219951046818</v>
+        <v>0.5853022620452972</v>
       </c>
       <c r="Q12">
-        <v>9.107505543705333</v>
+        <v>10.768519893192</v>
       </c>
       <c r="R12">
-        <v>81.96754989334799</v>
+        <v>96.91667903872801</v>
       </c>
       <c r="S12">
-        <v>0.03937064359236082</v>
+        <v>0.04263214977215118</v>
       </c>
       <c r="T12">
-        <v>0.03937064359236081</v>
+        <v>0.04263214977215119</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.280282</v>
+        <v>0.332886</v>
       </c>
       <c r="H13">
-        <v>0.840846</v>
+        <v>0.998658</v>
       </c>
       <c r="I13">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="J13">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.130196</v>
+        <v>2.101131333333333</v>
       </c>
       <c r="N13">
-        <v>6.390587999999999</v>
+        <v>6.303394</v>
       </c>
       <c r="O13">
-        <v>0.04014820272029494</v>
+        <v>0.03801656888058921</v>
       </c>
       <c r="P13">
-        <v>0.04014820272029494</v>
+        <v>0.03801656888058921</v>
       </c>
       <c r="Q13">
-        <v>0.5970555952719999</v>
+        <v>0.6994372050280001</v>
       </c>
       <c r="R13">
-        <v>5.373500357447999</v>
+        <v>6.294934845252</v>
       </c>
       <c r="S13">
-        <v>0.002580999037933638</v>
+        <v>0.002769044583352646</v>
       </c>
       <c r="T13">
-        <v>0.002580999037933638</v>
+        <v>0.002769044583352646</v>
       </c>
     </row>
   </sheetData>
